--- a/Submission/BillOfMaterials/Budget.xlsx
+++ b/Submission/BillOfMaterials/Budget.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\METR4810\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\puffball.labs.eait.uq.edu.au\s4461999\Desktop\METR4810\Submission\BillOfMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="183">
   <si>
     <t>Final budget</t>
   </si>
@@ -570,13 +570,16 @@
   </si>
   <si>
     <t>http://www.ebay.com/itm/1-5-10PCS-HC-06-HC-05-30ft-Wireless-Bluetooth-RF-Transceiver-Module-RS232-TTL-/282221351296?var=&amp;hash=item41b5b41180:m:mLTyAnZU3KIkLZHysLo8B5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum Total </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,8 +611,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +654,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -776,12 +798,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -802,9 +825,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1121,21 +1146,22 @@
   <dimension ref="A1:AV104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1174,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1176,8 +1202,11 @@
       <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="16" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J2" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="16" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>113</v>
       </c>
@@ -1185,8 +1214,12 @@
         <f>SUM(I4:I18)</f>
         <v>61.980599999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="16">
+        <f>I3+I19+I28+I36+I45+I66+I78</f>
+        <v>165.45817333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
@@ -1213,7 +1246,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -1241,7 +1274,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>111</v>
       </c>
@@ -1269,7 +1302,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -1297,7 +1330,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
@@ -1324,7 +1357,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>146</v>
       </c>
@@ -1351,7 +1384,7 @@
         <v>0.33560000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>148</v>
       </c>
@@ -1378,7 +1411,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>151</v>
       </c>
@@ -1401,7 +1434,7 @@
         <v>35.44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>153</v>
       </c>
@@ -1418,7 +1451,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>154</v>
       </c>
@@ -1445,7 +1478,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1457,7 +1490,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>158</v>
       </c>
@@ -1480,7 +1513,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>161</v>
       </c>
@@ -1501,7 +1534,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1512,7 +1545,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
@@ -1540,7 +1573,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -1556,7 +1589,7 @@
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,7 +1616,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -1606,7 +1639,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -1634,7 +1667,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1657,7 +1690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>167</v>
       </c>
@@ -1683,7 +1716,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>172</v>
       </c>
@@ -1713,7 +1746,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>171</v>
       </c>
@@ -1741,7 +1774,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="16" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:48" s="16" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1836,7 @@
       <c r="AU27"/>
       <c r="AV27"/>
     </row>
-    <row r="28" spans="1:48" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>89</v>
       </c>
@@ -1822,7 +1855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:48" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1841,7 +1874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -1891,7 +1924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
@@ -1910,7 +1943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>93</v>
       </c>
@@ -1929,7 +1962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -1961,7 +1994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -1980,7 +2013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>98</v>
       </c>
@@ -1999,7 +2032,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>99</v>
       </c>
@@ -2030,7 +2063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
@@ -2054,7 +2087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -2078,7 +2111,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -2102,7 +2135,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>103</v>
       </c>
@@ -2126,14 +2159,14 @@
         <v>38</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" ref="I38:I44" si="1">D41*F41</f>
+        <f t="shared" ref="I41:I44" si="1">D41*F41</f>
         <v>1.52</v>
       </c>
       <c r="J41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
@@ -2164,7 +2197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
@@ -2195,7 +2228,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>107</v>
       </c>
@@ -2226,7 +2259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>86</v>
       </c>
@@ -2245,7 +2278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>35</v>
       </c>
@@ -2277,7 +2310,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
@@ -2304,7 +2337,7 @@
         <v>1.48E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="16" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" s="16" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -2331,7 +2364,7 @@
         <v>9.5399999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
@@ -2361,7 +2394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -2391,7 +2424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2423,7 +2456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -2455,7 +2488,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -2485,7 +2518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
@@ -2515,7 +2548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -2545,7 +2578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -2575,7 +2608,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
@@ -2605,7 +2638,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>68</v>
       </c>
@@ -2635,7 +2668,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -2662,7 +2695,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="16" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" s="16" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>71</v>
       </c>
@@ -2689,7 +2722,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
@@ -2719,7 +2752,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
@@ -2749,7 +2782,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>79</v>
       </c>
@@ -2781,7 +2814,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
@@ -2811,7 +2844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>15</v>
       </c>
@@ -2841,7 +2874,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>87</v>
       </c>
@@ -2860,7 +2893,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>33</v>
       </c>
@@ -2891,7 +2924,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>44</v>
       </c>
@@ -2922,7 +2955,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>47</v>
       </c>
@@ -2950,7 +2983,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -2978,7 +3011,7 @@
         <v>0.8879999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
@@ -3006,7 +3039,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
@@ -3034,7 +3067,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>68</v>
       </c>
@@ -3062,7 +3095,7 @@
         <v>0.69500000000000006</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>71</v>
       </c>
@@ -3091,7 +3124,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>17</v>
       </c>
@@ -3119,7 +3152,7 @@
         <v>0.81788000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
@@ -3149,7 +3182,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>15</v>
       </c>
@@ -3177,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>108</v>
       </c>
@@ -3193,7 +3226,7 @@
         <v>18.380000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>21</v>
       </c>
@@ -3221,7 +3254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>117</v>
       </c>
@@ -3251,7 +3284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>122</v>
       </c>
@@ -3278,7 +3311,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>105</v>
       </c>
@@ -3303,7 +3336,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>133</v>
       </c>
@@ -3330,7 +3363,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H84" s="15" t="s">
         <v>140</v>
       </c>
@@ -3339,7 +3372,7 @@
         <v>165.45817333333332</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>97</v>
       </c>
@@ -3352,7 +3385,7 @@
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>8</v>
       </c>
@@ -3365,7 +3398,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>9</v>
       </c>
@@ -3382,7 +3415,7 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>10</v>
       </c>
@@ -3397,7 +3430,7 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,7 +3443,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>4</v>
       </c>
@@ -3427,7 +3460,7 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3477,7 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -3459,7 +3492,7 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +3510,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
@@ -3494,7 +3527,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>14</v>
       </c>
@@ -3511,7 +3544,7 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
@@ -3526,7 +3559,7 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>24</v>
       </c>
@@ -3539,7 +3572,7 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>25</v>
       </c>
@@ -3552,7 +3585,7 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
@@ -3567,7 +3600,7 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>

--- a/Submission/BillOfMaterials/Budget.xlsx
+++ b/Submission/BillOfMaterials/Budget.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$104</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="183">
   <si>
     <t>Final budget</t>
   </si>
@@ -1143,10 +1146,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AV104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection sqref="A1:I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1167,7 @@
     <col min="10" max="10" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1170,8 +1176,13 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="G1" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="16">
+        <f>I3+I19+I28+I36+I45+I66+I78</f>
+        <v>165.45817333333332</v>
+      </c>
       <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3631,6 +3642,6 @@
     <hyperlink ref="J58" display="http://au.rs-online.com/web/p/visible-leds/6973617/?searchTerm=697-3617&amp;relevancy-data=636F3D3126696E3D4931384E525353746F636B4E756D6265724D504E266C753D656E266D6D3D6D61746368616C6C26706D3D5E283F69292852537C5253207C52532D293F5C647B337D285C73293F5B5C732D2F25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId12"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>